--- a/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
+++ b/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
@@ -3,12 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2024-04-04" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2024-04-07" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-04-04'!$A$1:$G$162</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-04-07'!$A$1:$G$162</definedName>
   </definedNames>
   <calcPr/>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="at949tI5QaGB5NvLE2ZBScOobRp7KvBG/9/YLXLKWSY="/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -548,7 +553,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="[$€]#,##0.00"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -559,12 +564,6 @@
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <color theme="1"/>
@@ -596,24 +595,24 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -842,7 +841,7 @@
       <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.0"/>
     <col customWidth="1" min="2" max="2" width="57.13"/>
@@ -852,7 +851,7 @@
     <col customWidth="1" min="7" max="7" width="10.38"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
         <v>213.0</v>
       </c>
@@ -898,7 +897,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
         <v>171.0</v>
       </c>
@@ -921,7 +920,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
         <v>240.0</v>
       </c>
@@ -944,7 +943,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
         <v>243.0</v>
       </c>
@@ -967,7 +966,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
         <v>238.0</v>
       </c>
@@ -990,7 +989,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
         <v>239.0</v>
       </c>
@@ -1013,7 +1012,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
         <v>249.0</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
         <v>260.0</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
         <v>266.0</v>
       </c>
@@ -1082,7 +1081,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
         <v>246.0</v>
       </c>
@@ -1105,7 +1104,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
         <v>87.0</v>
       </c>
@@ -1128,7 +1127,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
         <v>88.0</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
         <v>89.0</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
         <v>90.0</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
         <v>656.0</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>7.99</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
         <v>629.0</v>
       </c>
@@ -1243,7 +1242,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
         <v>593.0</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
         <v>486.0</v>
       </c>
@@ -1289,7 +1288,7 @@
         <v>79.99</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
         <v>754.0</v>
       </c>
@@ -1312,7 +1311,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
         <v>725.0</v>
       </c>
@@ -1335,7 +1334,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
         <v>761.0</v>
       </c>
@@ -1358,7 +1357,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
         <v>770.0</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
         <v>708.0</v>
       </c>
@@ -1404,7 +1403,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
         <v>2.0</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
         <v>642.0</v>
       </c>
@@ -1450,7 +1449,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
         <v>749.0</v>
       </c>
@@ -1473,7 +1472,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
         <v>809.0</v>
       </c>
@@ -1496,7 +1495,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
         <v>427.0</v>
       </c>
@@ -1519,7 +1518,7 @@
         <v>14.49</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
         <v>631.0</v>
       </c>
@@ -1542,7 +1541,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
         <v>595.0</v>
       </c>
@@ -1565,7 +1564,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
         <v>792.0</v>
       </c>
@@ -1588,7 +1587,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
         <v>832.0</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
         <v>502.0</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
         <v>500.0</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
         <v>358.0</v>
       </c>
@@ -1680,7 +1679,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
         <v>393.0</v>
       </c>
@@ -1703,7 +1702,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
         <v>410.0</v>
       </c>
@@ -1726,7 +1725,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
         <v>345.0</v>
       </c>
@@ -1749,7 +1748,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
         <v>295.0</v>
       </c>
@@ -1772,7 +1771,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
         <v>902.0</v>
       </c>
@@ -1795,7 +1794,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
         <v>923.0</v>
       </c>
@@ -1818,7 +1817,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
         <v>928.0</v>
       </c>
@@ -1841,7 +1840,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
         <v>607.0</v>
       </c>
@@ -1864,7 +1863,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
         <v>888.0</v>
       </c>
@@ -1887,7 +1886,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
         <v>690.0</v>
       </c>
@@ -1910,7 +1909,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
         <v>703.0</v>
       </c>
@@ -1933,7 +1932,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
         <v>784.0</v>
       </c>
@@ -1956,7 +1955,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
         <v>639.0</v>
       </c>
@@ -1979,7 +1978,7 @@
         <v>34.99</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
         <v>625.0</v>
       </c>
@@ -2002,7 +2001,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
         <v>102.0</v>
       </c>
@@ -2025,7 +2024,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
         <v>215.0</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
         <v>275.0</v>
       </c>
@@ -2071,7 +2070,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
         <v>669.0</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
         <v>733.0</v>
       </c>
@@ -2117,7 +2116,7 @@
         <v>5.99</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
         <v>821.0</v>
       </c>
@@ -2140,7 +2139,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
         <v>425.0</v>
       </c>
@@ -2163,7 +2162,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
         <v>793.0</v>
       </c>
@@ -2186,7 +2185,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
         <v>559.0</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
         <v>530.0</v>
       </c>
@@ -2232,7 +2231,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
         <v>840.0</v>
       </c>
@@ -2255,7 +2254,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
         <v>560.0</v>
       </c>
@@ -2278,7 +2277,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
         <v>457.0</v>
       </c>
@@ -2301,7 +2300,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
         <v>853.0</v>
       </c>
@@ -2324,7 +2323,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
         <v>830.0</v>
       </c>
@@ -2347,7 +2346,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
         <v>745.0</v>
       </c>
@@ -2370,7 +2369,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
         <v>771.0</v>
       </c>
@@ -2393,7 +2392,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
         <v>779.0</v>
       </c>
@@ -2416,7 +2415,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
         <v>835.0</v>
       </c>
@@ -2439,7 +2438,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
         <v>464.0</v>
       </c>
@@ -2462,7 +2461,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
         <v>503.0</v>
       </c>
@@ -2485,7 +2484,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
         <v>881.0</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>79.99</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
         <v>850.0</v>
       </c>
@@ -2531,7 +2530,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
         <v>743.0</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
         <v>813.0</v>
       </c>
@@ -2577,7 +2576,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
         <v>816.0</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
         <v>529.0</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
         <v>831.0</v>
       </c>
@@ -2646,7 +2645,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
         <v>314.0</v>
       </c>
@@ -2669,7 +2668,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
         <v>912.0</v>
       </c>
@@ -2692,7 +2691,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
         <v>674.0</v>
       </c>
@@ -2715,7 +2714,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
         <v>657.0</v>
       </c>
@@ -2738,7 +2737,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2">
         <v>877.0</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2">
         <v>833.0</v>
       </c>
@@ -2784,7 +2783,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2">
         <v>620.0</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2">
         <v>282.0</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2">
         <v>586.0</v>
       </c>
@@ -2853,7 +2852,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2">
         <v>335.0</v>
       </c>
@@ -2876,7 +2875,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2">
         <v>827.0</v>
       </c>
@@ -2899,7 +2898,7 @@
         <v>79.99</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2">
         <v>663.0</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2">
         <v>868.0</v>
       </c>
@@ -2945,7 +2944,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2">
         <v>476.0</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2">
         <v>505.0</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2">
         <v>414.0</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2">
         <v>815.0</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2">
         <v>917.0</v>
       </c>
@@ -3060,7 +3059,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2">
         <v>897.0</v>
       </c>
@@ -3083,7 +3082,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2">
         <v>843.0</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2">
         <v>441.0</v>
       </c>
@@ -3129,7 +3128,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2">
         <v>839.0</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>20.99</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2">
         <v>869.0</v>
       </c>
@@ -3175,7 +3174,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2">
         <v>823.0</v>
       </c>
@@ -3198,7 +3197,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2">
         <v>789.0</v>
       </c>
@@ -3221,7 +3220,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2">
         <v>272.0</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2">
         <v>879.0</v>
       </c>
@@ -3267,7 +3266,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2">
         <v>822.0</v>
       </c>
@@ -3290,7 +3289,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2">
         <v>413.0</v>
       </c>
@@ -3313,7 +3312,7 @@
         <v>16.99</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2">
         <v>794.0</v>
       </c>
@@ -3336,7 +3335,7 @@
         <v>17.99</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2">
         <v>814.0</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2">
         <v>841.0</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>84.99</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2">
         <v>236.0</v>
       </c>
@@ -3405,7 +3404,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2">
         <v>195.0</v>
       </c>
@@ -3428,7 +3427,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2">
         <v>327.0</v>
       </c>
@@ -3451,7 +3450,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2">
         <v>497.0</v>
       </c>
@@ -3474,7 +3473,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2">
         <v>795.0</v>
       </c>
@@ -3497,7 +3496,7 @@
         <v>79.99</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2">
         <v>878.0</v>
       </c>
@@ -3520,7 +3519,7 @@
         <v>44.99</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2">
         <v>863.0</v>
       </c>
@@ -3543,7 +3542,7 @@
         <v>0.0</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2">
         <v>905.0</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2">
         <v>837.0</v>
       </c>
@@ -3589,7 +3588,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2">
         <v>354.0</v>
       </c>
@@ -3612,7 +3611,7 @@
         <v>21.99</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2">
         <v>920.0</v>
       </c>
@@ -3635,7 +3634,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2">
         <v>919.0</v>
       </c>
@@ -3658,7 +3657,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2">
         <v>849.0</v>
       </c>
@@ -3681,7 +3680,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2">
         <v>866.0</v>
       </c>
@@ -3704,7 +3703,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2">
         <v>801.0</v>
       </c>
@@ -3727,7 +3726,7 @@
         <v>74.99</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2">
         <v>819.0</v>
       </c>
@@ -3750,7 +3749,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2">
         <v>787.0</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2">
         <v>812.0</v>
       </c>
@@ -3796,7 +3795,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2">
         <v>893.0</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2">
         <v>403.0</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2">
         <v>572.0</v>
       </c>
@@ -3865,7 +3864,7 @@
         <v>4.99</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2">
         <v>501.0</v>
       </c>
@@ -3888,7 +3887,7 @@
         <v>15.99</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2">
         <v>630.0</v>
       </c>
@@ -3911,7 +3910,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2">
         <v>660.0</v>
       </c>
@@ -3934,7 +3933,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2">
         <v>865.0</v>
       </c>
@@ -3957,7 +3956,7 @@
         <v>6.99</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2">
         <v>856.0</v>
       </c>
@@ -3980,7 +3979,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2">
         <v>818.0</v>
       </c>
@@ -4003,7 +4002,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2">
         <v>719.0</v>
       </c>
@@ -4026,7 +4025,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2">
         <v>838.0</v>
       </c>
@@ -4049,7 +4048,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2">
         <v>509.0</v>
       </c>
@@ -4072,7 +4071,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2">
         <v>539.0</v>
       </c>
@@ -4095,7 +4094,7 @@
         <v>9.99</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2">
         <v>412.0</v>
       </c>
@@ -4118,7 +4117,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2">
         <v>442.0</v>
       </c>
@@ -4141,7 +4140,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2">
         <v>925.0</v>
       </c>
@@ -4164,7 +4163,7 @@
         <v>19.99</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2">
         <v>871.0</v>
       </c>
@@ -4187,7 +4186,7 @@
         <v>14.99</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2">
         <v>508.0</v>
       </c>
@@ -4210,7 +4209,7 @@
         <v>49.99</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2">
         <v>825.0</v>
       </c>
@@ -4233,7 +4232,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2">
         <v>926.0</v>
       </c>
@@ -4256,7 +4255,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2">
         <v>908.0</v>
       </c>
@@ -4279,7 +4278,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2">
         <v>862.0</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>89.99</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2">
         <v>788.0</v>
       </c>
@@ -4325,7 +4324,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2">
         <v>890.0</v>
       </c>
@@ -4348,7 +4347,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2">
         <v>880.0</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2">
         <v>854.0</v>
       </c>
@@ -4394,7 +4393,7 @@
         <v>69.99</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2">
         <v>857.0</v>
       </c>
@@ -4417,7 +4416,7 @@
         <v>54.99</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2">
         <v>929.0</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>24.99</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2">
         <v>931.0</v>
       </c>
@@ -4463,7 +4462,7 @@
         <v>29.99</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2">
         <v>932.0</v>
       </c>
@@ -4486,7 +4485,7 @@
         <v>59.99</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2">
         <v>935.0</v>
       </c>
@@ -4509,7 +4508,7 @@
         <v>79.99</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2">
         <v>936.0</v>
       </c>
@@ -4532,7 +4531,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2">
         <v>940.0</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>39.99</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2">
         <v>941.0</v>
       </c>
@@ -4580,7 +4579,8 @@
         <v>16.99</v>
       </c>
     </row>
-    <row r="164">
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1">
       <c r="E164" s="8">
         <f t="shared" ref="E164:G164" si="2">SUM(E2:E162)</f>
         <v>4940.1</v>
@@ -4602,7 +4602,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="E165" s="8">
         <f>E164/I164</f>
         <v>30.68385093</v>
@@ -4624,6 +4624,841 @@
         <v>1</v>
       </c>
     </row>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <autoFilter ref="$A$1:$G$162"/>
   <drawing r:id="rId1"/>

--- a/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
+++ b/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
@@ -3,22 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="2024-04-07" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="2024-09-23" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-04-07'!$A$1:$G$162</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-09-23'!$A$1:$G$178</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="at949tI5QaGB5NvLE2ZBScOobRp7KvBG/9/YLXLKWSY="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TX2ZcCTkVlUHDeUm07f6j7jXImeE/xKWRx8BTnRft8k="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="192">
   <si>
     <t>ID</t>
   </si>
@@ -41,160 +41,175 @@
     <t>Savings</t>
   </si>
   <si>
+    <t>Thomas Was Alone</t>
+  </si>
+  <si>
+    <t>PS3</t>
+  </si>
+  <si>
     <t>Tekken Revolution</t>
   </si>
   <si>
-    <t>PS3</t>
-  </si>
-  <si>
     <t>Need for Speed: Most Wanted (2012)</t>
   </si>
   <si>
     <t>Fat Princess: Piece of Cake</t>
   </si>
   <si>
-    <t>PSVITA</t>
+    <t>VITA</t>
+  </si>
+  <si>
+    <t>Welcome Park</t>
   </si>
   <si>
     <t>Get Off My Lawn!</t>
   </si>
   <si>
+    <t>Paint Park Plus</t>
+  </si>
+  <si>
+    <t>Table Football</t>
+  </si>
+  <si>
     <t>Crazy Market</t>
   </si>
   <si>
     <t>Deathmatch Village</t>
   </si>
   <si>
-    <t>Paint Park Plus</t>
-  </si>
-  <si>
-    <t>Table Football</t>
-  </si>
-  <si>
     <t>Worms Revolution Extreme</t>
   </si>
   <si>
     <t>LEGO Batman 2: DC Super Heroes</t>
   </si>
   <si>
-    <t>LEGO Indiana Jones</t>
+    <t>LEGO Indiana Jones: The Original Adventures</t>
+  </si>
+  <si>
+    <t>PS2</t>
+  </si>
+  <si>
+    <t>LEGO Batman: The Videogame</t>
+  </si>
+  <si>
+    <t>LEGO Star Wars III: The Clone Wars</t>
   </si>
   <si>
     <t>PSP</t>
   </si>
   <si>
-    <t>LEGO Batman</t>
-  </si>
-  <si>
-    <t>LEGO Star Wars III: The Clone Wars</t>
-  </si>
-  <si>
-    <t>LEGO Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Thomas Was Alone</t>
+    <t>LEGO Pirates of the Caribbean: The Video Game</t>
+  </si>
+  <si>
+    <t>Thats You!</t>
   </si>
   <si>
     <t>PS4</t>
   </si>
   <si>
-    <t>That`s You!</t>
-  </si>
-  <si>
     <t>South Park: The Stick of Truth</t>
   </si>
   <si>
-    <t>Marvel`s Spider-Man</t>
+    <t>Fortnite</t>
+  </si>
+  <si>
+    <t>Marvels Spider-Man</t>
+  </si>
+  <si>
+    <t>The Playroom VR</t>
+  </si>
+  <si>
+    <t>VR</t>
   </si>
   <si>
     <t>PlayStation VR Worlds</t>
   </si>
   <si>
-    <t>PSVR</t>
-  </si>
-  <si>
     <t>DOOM VFR</t>
   </si>
   <si>
-    <t>Skyrim VR</t>
-  </si>
-  <si>
-    <t>The Playroom VR</t>
+    <t>The Elder Scrolls V: Skyrim VR</t>
+  </si>
+  <si>
+    <t>The Playroom</t>
   </si>
   <si>
     <t>Yooka-Laylee and the Impossible Lair</t>
   </si>
   <si>
-    <t>Beyblade: Let It Rip!</t>
+    <t>Beyblade: Let it Rip!</t>
   </si>
   <si>
     <t>PS1</t>
   </si>
   <si>
+    <t>Fall Guys: Ultimate Knockout</t>
+  </si>
+  <si>
     <t>The Last of Us Part II</t>
   </si>
   <si>
-    <t>Marvel`s Iron Man VR</t>
-  </si>
-  <si>
-    <t>Crash Bandicoot 4: It`s About Time</t>
+    <t>Marvels Iron Man VR</t>
+  </si>
+  <si>
+    <t>Crash Bandicoot 4: Its About Time</t>
+  </si>
+  <si>
+    <t>Hollow Knight</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac: Rebirth</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Astros Playroom</t>
   </si>
   <si>
     <t>PS5</t>
   </si>
   <si>
-    <t>Hollow Knight: Voidheart Edition</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac: Rebirth</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Astro`s Playroom</t>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Wreckfest</t>
+  </si>
+  <si>
+    <t>Monster Hunter: World</t>
+  </si>
+  <si>
+    <t>Mortal Kombat X</t>
+  </si>
+  <si>
+    <t>Days Gone</t>
+  </si>
+  <si>
+    <t>Battlefield 1</t>
+  </si>
+  <si>
+    <t>Detroit: Become Human</t>
+  </si>
+  <si>
+    <t>Final Fantasy XV</t>
   </si>
   <si>
     <t>Genshin Impact</t>
   </si>
   <si>
-    <t>Mortal Kombat X</t>
-  </si>
-  <si>
-    <t>Monster Hunter World: Iceborne</t>
-  </si>
-  <si>
-    <t>Detroit: Become Human</t>
-  </si>
-  <si>
-    <t>Final Fantasy XV: Royal Edition</t>
-  </si>
-  <si>
     <t>God of War (2018)</t>
   </si>
   <si>
-    <t>Days Gone</t>
-  </si>
-  <si>
-    <t>Battlefield 1: Revolution</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Warframe: The New War</t>
-  </si>
-  <si>
-    <t>Wreckfest</t>
-  </si>
-  <si>
     <t>Stranded Deep</t>
   </si>
   <si>
     <t>Rogue Company</t>
   </si>
   <si>
-    <t>Virtua Fighter 5: Ultimate Showdown</t>
+    <t>Virtua Fighter 5</t>
   </si>
   <si>
     <t>WWE 2K Battlegrounds</t>
@@ -209,24 +224,24 @@
     <t>Tennis World Tour 2</t>
   </si>
   <si>
+    <t>The Cave</t>
+  </si>
+  <si>
     <t>Battlefield 3</t>
   </si>
   <si>
-    <t>The Cave</t>
-  </si>
-  <si>
     <t>Abzu</t>
   </si>
   <si>
+    <t>F1 2021</t>
+  </si>
+  <si>
     <t>Trover Saves The Universe</t>
   </si>
   <si>
     <t>Floor Plan</t>
   </si>
   <si>
-    <t>F1 2021</t>
-  </si>
-  <si>
     <t>Hitman 2</t>
   </si>
   <si>
@@ -245,24 +260,24 @@
     <t>Resident Evil: Re:Verse</t>
   </si>
   <si>
-    <t>Kingdoms of Amalur: Re-Reckoning</t>
-  </si>
-  <si>
     <t>Knockout City</t>
   </si>
   <si>
+    <t>Kingdoms of Amalur: Reckoning</t>
+  </si>
+  <si>
     <t>First Class Trouble</t>
   </si>
   <si>
+    <t>The Walking Dead: Saints and Sinners</t>
+  </si>
+  <si>
+    <t>Until You Fall</t>
+  </si>
+  <si>
     <t>Kingdom Hearts: VR Experience</t>
   </si>
   <si>
-    <t>The Walking Dead: Saints and Sinners</t>
-  </si>
-  <si>
-    <t>Until You Fall</t>
-  </si>
-  <si>
     <t>Godfall</t>
   </si>
   <si>
@@ -272,64 +287,58 @@
     <t>Mortal Shell</t>
   </si>
   <si>
+    <t>Kena: Bridge of Spirits</t>
+  </si>
+  <si>
     <t>Ratchet &amp; Clank: Rift Apart</t>
   </si>
   <si>
-    <t>Kena: Bridge of Spirits</t>
-  </si>
-  <si>
-    <t>I Expect You to Die 2</t>
+    <t>I Expect You to Die 2: The Spy and the Liar</t>
+  </si>
+  <si>
+    <t>Persona 5 Strikers</t>
+  </si>
+  <si>
+    <t>DIRT 5</t>
   </si>
   <si>
     <t>Deep Rock Galactic</t>
   </si>
   <si>
-    <t>DIRT 5</t>
-  </si>
-  <si>
-    <t>Persona 5 Strikers</t>
-  </si>
-  <si>
-    <t>Fortnite</t>
-  </si>
-  <si>
     <t>Call of Duty: Black Ops III</t>
   </si>
   <si>
     <t>The Persistence</t>
   </si>
   <si>
-    <t>UFC 4</t>
-  </si>
-  <si>
-    <t>Tiny Tina`s Assault on Dragon Keep: A Wonderlands One-Shot Adventure</t>
-  </si>
-  <si>
     <t>Planet Coaster</t>
   </si>
   <si>
+    <t>EA Sports UFC 4</t>
+  </si>
+  <si>
+    <t>ARK: Survival Evolved</t>
+  </si>
+  <si>
     <t>Ghostrunner</t>
   </si>
   <si>
     <t>Team Sonic Racing</t>
   </si>
   <si>
-    <t>ARK: Survival Evolved</t>
-  </si>
-  <si>
     <t>Slay the Spire</t>
   </si>
   <si>
+    <t>FIFA 22</t>
+  </si>
+  <si>
     <t>Curse of the Dead Gods</t>
   </si>
   <si>
-    <t>FIFA 22</t>
-  </si>
-  <si>
     <t>Tribes of Midgard</t>
   </si>
   <si>
-    <t>Nickelodeon All Stars Brawl</t>
+    <t>Nickelodeon All-Star Brawl</t>
   </si>
   <si>
     <t>Little Nightmares</t>
@@ -341,13 +350,22 @@
     <t>Granblue Fantasy: Versus</t>
   </si>
   <si>
-    <t>Destroy All Humans 2: Reprobed (2022)</t>
-  </si>
-  <si>
-    <t>TOEM</t>
-  </si>
-  <si>
-    <t>Sonic Origins</t>
+    <t>TOEM: A Photo Adventure</t>
+  </si>
+  <si>
+    <t>Destroy All Humans! 2: Reprobed</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog (1991): Sonic Origins (2022)</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog 2 (1992): Sonic Origins (2022)</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog 3 &amp; Knuckles (1994): Sonic Origins (2022)</t>
+  </si>
+  <si>
+    <t>Sonic CD (1993): Sonic Origins (2022)</t>
   </si>
   <si>
     <t>Hot Wheels Unleashed</t>
@@ -362,9 +380,6 @@
     <t>Nioh 2</t>
   </si>
   <si>
-    <t>Fall Guys: Ultimate Knockout</t>
-  </si>
-  <si>
     <t>Apex Legends</t>
   </si>
   <si>
@@ -374,7 +389,7 @@
     <t>Potion Permit</t>
   </si>
   <si>
-    <t>F1 Manager</t>
+    <t>F1 Manager 2022</t>
   </si>
   <si>
     <t>Good Dog Bad Dog</t>
@@ -398,21 +413,21 @@
     <t>Code Vein</t>
   </si>
   <si>
+    <t>Battlefield 2042</t>
+  </si>
+  <si>
     <t>Minecraft Dungeons</t>
   </si>
   <si>
-    <t>Battlefield 2042</t>
-  </si>
-  <si>
     <t>Postal 4: No Regerts</t>
   </si>
   <si>
+    <t>Tails of Iron</t>
+  </si>
+  <si>
     <t>Meet Your Maker</t>
   </si>
   <si>
-    <t>Tails of Iron</t>
-  </si>
-  <si>
     <t>GRID Legends</t>
   </si>
   <si>
@@ -437,34 +452,34 @@
     <t>Endling: Extinction is Forever</t>
   </si>
   <si>
-    <t>Alan Wake Remastered</t>
-  </si>
-  <si>
-    <t>Death`s Door</t>
+    <t>Alan Wake</t>
+  </si>
+  <si>
+    <t>Deaths Door</t>
+  </si>
+  <si>
+    <t>Generation Zero</t>
   </si>
   <si>
     <t>Saints Row (2022)</t>
   </si>
   <si>
-    <t>Generation Zero</t>
-  </si>
-  <si>
     <t>Run Sausage Run!</t>
   </si>
   <si>
+    <t>The Amazing American Circus</t>
+  </si>
+  <si>
+    <t>Total Arcade Racing</t>
+  </si>
+  <si>
+    <t>Music Racer: Ultimate</t>
+  </si>
+  <si>
     <t>Monster Prom: XXL</t>
   </si>
   <si>
-    <t>The Amazing American Circus</t>
-  </si>
-  <si>
-    <t>Total Arcade Racing</t>
-  </si>
-  <si>
-    <t>Music Racer: Ultimate</t>
-  </si>
-  <si>
-    <t>Like a Dragon: Ishin</t>
+    <t>Like a Dragon: Ishin!</t>
   </si>
   <si>
     <t>Dungeon Munchies</t>
@@ -473,25 +488,25 @@
     <t>Budget Cuts</t>
   </si>
   <si>
+    <t>Wonder Boy: The Dragons Trap</t>
+  </si>
+  <si>
+    <t>Going Under</t>
+  </si>
+  <si>
+    <t>Primal</t>
+  </si>
+  <si>
     <t>Grindstone</t>
   </si>
   <si>
+    <t>Iris and the Giant</t>
+  </si>
+  <si>
     <t>Ni No Kuni II: Revenant Kingdom</t>
   </si>
   <si>
-    <t>Primal</t>
-  </si>
-  <si>
-    <t>Going Under</t>
-  </si>
-  <si>
-    <t>Iris and the Giant</t>
-  </si>
-  <si>
-    <t>Wonder Boy: The Dragon`s Trap</t>
-  </si>
-  <si>
-    <t>Nour: Play with your Food</t>
+    <t>Nour: Play With Your Food</t>
   </si>
   <si>
     <t>Ni No Kuni: Wrath of the White Witch</t>
@@ -500,27 +515,24 @@
     <t>Farming Simulator 22</t>
   </si>
   <si>
-    <t>Weird West: Definitive Edition</t>
-  </si>
-  <si>
     <t>The Callisto Protocol</t>
   </si>
   <si>
-    <t>Marvel`s Spider-Man 2: Digital Deluxe Edition</t>
+    <t>Weird West</t>
+  </si>
+  <si>
+    <t>Marvels Spider-Man 2</t>
   </si>
   <si>
     <t>Aliens: Fireteam Elite</t>
   </si>
   <si>
+    <t>LEGO 2K Drive</t>
+  </si>
+  <si>
     <t>Sable</t>
   </si>
   <si>
-    <t>PowerWash Simulator</t>
-  </si>
-  <si>
-    <t>LEGO 2K Drive</t>
-  </si>
-  <si>
     <t>Like a Dragon Gaiden: The Man Who Erased His Name</t>
   </si>
   <si>
@@ -533,16 +545,55 @@
     <t>Steelrising</t>
   </si>
   <si>
+    <t>Sifu</t>
+  </si>
+  <si>
     <t>F1 23</t>
   </si>
   <si>
-    <t>Sifu</t>
+    <t>The Survivalists</t>
+  </si>
+  <si>
+    <t>Skul: The Hero Slayer</t>
   </si>
   <si>
     <t>Minecraft Legends</t>
   </si>
   <si>
-    <t>Skul: The Hero Slayer</t>
+    <t>Fallout Shelter</t>
+  </si>
+  <si>
+    <t>NHL 24</t>
+  </si>
+  <si>
+    <t>LEGO Star Wars: The Skywalker Saga</t>
+  </si>
+  <si>
+    <t>Ender Lilies: Quietus of the Knights</t>
+  </si>
+  <si>
+    <t>Harry Potter: Quidditch Champions</t>
+  </si>
+  <si>
+    <t>MLB The Show 24</t>
+  </si>
+  <si>
+    <t>Little Nightmares II</t>
+  </si>
+  <si>
+    <t>Astro Bot</t>
+  </si>
+  <si>
+    <t>Final Fantasy VII: Rebirth (2024)</t>
+  </si>
+  <si>
+    <t>Animal Well</t>
+  </si>
+  <si>
+    <t>Moonshine Inc</t>
+  </si>
+  <si>
+    <t>The Plucky Squire</t>
   </si>
 </sst>
 </file>
@@ -590,7 +641,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -598,22 +649,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="bottom"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
@@ -844,7 +886,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="7.0"/>
-    <col customWidth="1" min="2" max="2" width="57.13"/>
+    <col customWidth="1" min="2" max="2" width="36.25"/>
     <col customWidth="1" min="3" max="3" width="9.63"/>
     <col customWidth="1" min="4" max="4" width="15.75"/>
     <col customWidth="1" min="5" max="6" width="11.63"/>
@@ -876,7 +918,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="2">
-        <v>213.0</v>
+        <v>394.0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -885,21 +927,21 @@
         <v>8</v>
       </c>
       <c r="D2" s="3">
-        <v>41491.0</v>
+        <v>41410.0</v>
       </c>
       <c r="E2" s="4">
-        <v>0.0</v>
+        <v>7.99</v>
       </c>
       <c r="F2" s="4">
         <v>0.0</v>
       </c>
       <c r="G2" s="4">
-        <v>0.0</v>
+        <v>7.99</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="2">
-        <v>171.0</v>
+        <v>374.0</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -908,53 +950,53 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>41493.0</v>
+        <v>41491.0</v>
       </c>
       <c r="E3" s="4">
-        <v>14.99</v>
+        <v>0.0</v>
       </c>
       <c r="F3" s="4">
         <v>0.0</v>
       </c>
       <c r="G3" s="4">
-        <v>14.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="2">
-        <v>240.0</v>
+        <v>308.0</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D4" s="3">
-        <v>42036.0</v>
+        <v>41493.0</v>
       </c>
       <c r="E4" s="4">
-        <v>0.0</v>
+        <v>19.99</v>
       </c>
       <c r="F4" s="4">
         <v>0.0</v>
       </c>
       <c r="G4" s="4">
-        <v>0.0</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="2">
-        <v>243.0</v>
+        <v>431.0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" s="3">
-        <v>42045.0</v>
+        <v>42036.0</v>
       </c>
       <c r="E5" s="4">
         <v>0.0</v>
@@ -968,16 +1010,16 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="2">
-        <v>238.0</v>
+        <v>484.0</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" s="3">
-        <v>42187.0</v>
+        <v>42036.0</v>
       </c>
       <c r="E6" s="4">
         <v>0.0</v>
@@ -991,16 +1033,16 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="2">
-        <v>239.0</v>
+        <v>436.0</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="3">
-        <v>42187.0</v>
+        <v>42045.0</v>
       </c>
       <c r="E7" s="4">
         <v>0.0</v>
@@ -1014,13 +1056,13 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="2">
-        <v>249.0</v>
+        <v>447.0</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="3">
         <v>42187.0</v>
@@ -1037,13 +1079,13 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="2">
-        <v>260.0</v>
+        <v>470.0</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D9" s="3">
         <v>42187.0</v>
@@ -1060,145 +1102,145 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="2">
-        <v>266.0</v>
+        <v>427.0</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10" s="3">
-        <v>42201.0</v>
+        <v>42187.0</v>
       </c>
       <c r="E10" s="4">
-        <v>14.99</v>
+        <v>0.0</v>
       </c>
       <c r="F10" s="4">
         <v>0.0</v>
       </c>
       <c r="G10" s="4">
-        <v>14.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="2">
-        <v>246.0</v>
+        <v>217.0</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="3">
-        <v>42236.0</v>
+        <v>42187.0</v>
       </c>
       <c r="E11" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
       <c r="F11" s="4">
         <v>0.0</v>
       </c>
       <c r="G11" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="2">
-        <v>87.0</v>
+        <v>416.0</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>42236.0</v>
+        <v>42201.0</v>
       </c>
       <c r="E12" s="4">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F12" s="4">
         <v>0.0</v>
       </c>
       <c r="G12" s="4">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="2">
-        <v>88.0</v>
+        <v>272.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" s="3">
         <v>42236.0</v>
       </c>
       <c r="E13" s="4">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="F13" s="4">
         <v>0.0</v>
       </c>
       <c r="G13" s="4">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="2">
-        <v>89.0</v>
+        <v>111.0</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D14" s="3">
         <v>42236.0</v>
       </c>
       <c r="E14" s="4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F14" s="4">
         <v>0.0</v>
       </c>
       <c r="G14" s="4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="2">
-        <v>90.0</v>
+        <v>112.0</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3">
         <v>42236.0</v>
       </c>
       <c r="E15" s="4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="F15" s="4">
         <v>0.0</v>
       </c>
       <c r="G15" s="4">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="2">
-        <v>656.0</v>
+        <v>165.0</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>24</v>
@@ -1207,21 +1249,21 @@
         <v>25</v>
       </c>
       <c r="D16" s="3">
-        <v>42828.0</v>
+        <v>42236.0</v>
       </c>
       <c r="E16" s="4">
-        <v>7.99</v>
+        <v>4.99</v>
       </c>
       <c r="F16" s="4">
         <v>0.0</v>
       </c>
       <c r="G16" s="4">
-        <v>7.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="2">
-        <v>629.0</v>
+        <v>166.0</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
@@ -1230,30 +1272,30 @@
         <v>25</v>
       </c>
       <c r="D17" s="3">
-        <v>42920.0</v>
+        <v>42236.0</v>
       </c>
       <c r="E17" s="4">
-        <v>0.0</v>
+        <v>4.99</v>
       </c>
       <c r="F17" s="4">
         <v>0.0</v>
       </c>
       <c r="G17" s="4">
-        <v>0.0</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="2">
-        <v>593.0</v>
+        <v>868.0</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D18" s="3">
-        <v>43081.0</v>
+        <v>42920.0</v>
       </c>
       <c r="E18" s="4">
         <v>0.0</v>
@@ -1267,131 +1309,131 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="2">
-        <v>486.0</v>
+        <v>360.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D19" s="3">
-        <v>43350.0</v>
+        <v>43081.0</v>
       </c>
       <c r="E19" s="4">
-        <v>79.99</v>
+        <v>29.99</v>
       </c>
       <c r="F19" s="4">
         <v>0.0</v>
       </c>
       <c r="G19" s="4">
-        <v>79.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="2">
-        <v>754.0</v>
+        <v>626.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="3">
-        <v>43463.0</v>
+        <v>43265.0</v>
       </c>
       <c r="E20" s="4">
-        <v>29.99</v>
+        <v>0.0</v>
       </c>
       <c r="F20" s="4">
         <v>0.0</v>
       </c>
       <c r="G20" s="4">
-        <v>29.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2">
-        <v>725.0</v>
+        <v>708.0</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" s="3">
-        <v>43468.0</v>
+        <v>43350.0</v>
       </c>
       <c r="E21" s="4">
-        <v>29.99</v>
+        <v>79.99</v>
       </c>
       <c r="F21" s="4">
         <v>0.0</v>
       </c>
       <c r="G21" s="4">
-        <v>29.99</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2">
-        <v>761.0</v>
+        <v>999.0</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D22" s="3">
-        <v>43469.0</v>
+        <v>43462.0</v>
       </c>
       <c r="E22" s="4">
-        <v>69.99</v>
+        <v>0.0</v>
       </c>
       <c r="F22" s="4">
         <v>0.0</v>
       </c>
       <c r="G22" s="4">
-        <v>69.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2">
-        <v>770.0</v>
+        <v>984.0</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D23" s="3">
-        <v>43469.0</v>
+        <v>43463.0</v>
       </c>
       <c r="E23" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
       <c r="F23" s="4">
         <v>0.0</v>
       </c>
       <c r="G23" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2">
-        <v>708.0</v>
+        <v>957.0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D24" s="3">
-        <v>43824.0</v>
+        <v>43468.0</v>
       </c>
       <c r="E24" s="4">
         <v>29.99</v>
@@ -1405,76 +1447,76 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2">
-        <v>2.0</v>
+        <v>997.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3">
-        <v>43882.0</v>
+        <v>43469.0</v>
       </c>
       <c r="E25" s="4">
-        <v>4.99</v>
+        <v>69.99</v>
       </c>
       <c r="F25" s="4">
         <v>0.0</v>
       </c>
       <c r="G25" s="4">
-        <v>4.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2">
-        <v>642.0</v>
+        <v>884.0</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D26" s="3">
-        <v>44083.0</v>
+        <v>43469.0</v>
       </c>
       <c r="E26" s="4">
-        <v>69.99</v>
+        <v>0.0</v>
       </c>
       <c r="F26" s="4">
         <v>0.0</v>
       </c>
       <c r="G26" s="4">
-        <v>69.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2">
-        <v>749.0</v>
+        <v>939.0</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="3">
-        <v>44091.0</v>
+        <v>43824.0</v>
       </c>
       <c r="E27" s="4">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="F27" s="4">
         <v>0.0</v>
       </c>
       <c r="G27" s="4">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2">
-        <v>809.0</v>
+        <v>2.0</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>39</v>
@@ -1483,191 +1525,191 @@
         <v>40</v>
       </c>
       <c r="D28" s="3">
-        <v>44105.0</v>
+        <v>43882.0</v>
       </c>
       <c r="E28" s="4">
-        <v>69.99</v>
+        <v>4.99</v>
       </c>
       <c r="F28" s="4">
         <v>0.0</v>
       </c>
       <c r="G28" s="4">
-        <v>69.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2">
-        <v>427.0</v>
+        <v>606.0</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D29" s="3">
-        <v>44138.0</v>
+        <v>44058.0</v>
       </c>
       <c r="E29" s="4">
-        <v>14.49</v>
+        <v>19.99</v>
       </c>
       <c r="F29" s="4">
         <v>0.0</v>
       </c>
       <c r="G29" s="4">
-        <v>14.49</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2">
-        <v>631.0</v>
+        <v>879.0</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D30" s="3">
-        <v>44190.0</v>
+        <v>44083.0</v>
       </c>
       <c r="E30" s="4">
-        <v>14.99</v>
+        <v>69.99</v>
       </c>
       <c r="F30" s="4">
         <v>0.0</v>
       </c>
       <c r="G30" s="4">
-        <v>14.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2">
-        <v>595.0</v>
+        <v>980.0</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3">
-        <v>44190.0</v>
+        <v>44091.0</v>
       </c>
       <c r="E31" s="4">
-        <v>14.99</v>
+        <v>39.99</v>
       </c>
       <c r="F31" s="4">
         <v>0.0</v>
       </c>
       <c r="G31" s="4">
-        <v>14.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2">
-        <v>792.0</v>
+        <v>552.0</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D32" s="3">
-        <v>44332.0</v>
+        <v>44106.0</v>
       </c>
       <c r="E32" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
       <c r="F32" s="4">
         <v>0.0</v>
       </c>
       <c r="G32" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2">
-        <v>832.0</v>
+        <v>648.0</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>44334.0</v>
+        <v>44138.0</v>
       </c>
       <c r="E33" s="4">
-        <v>0.0</v>
+        <v>14.49</v>
       </c>
       <c r="F33" s="4">
         <v>0.0</v>
       </c>
       <c r="G33" s="4">
-        <v>0.0</v>
+        <v>14.49</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2">
-        <v>502.0</v>
+        <v>362.0</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D34" s="3">
-        <v>44334.0</v>
+        <v>44190.0</v>
       </c>
       <c r="E34" s="4">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="F34" s="4">
         <v>0.0</v>
       </c>
       <c r="G34" s="4">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2">
-        <v>500.0</v>
+        <v>472.0</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D35" s="3">
-        <v>44334.0</v>
+        <v>44190.0</v>
       </c>
       <c r="E35" s="4">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
       <c r="F35" s="4">
         <v>0.0</v>
       </c>
       <c r="G35" s="4">
-        <v>19.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2">
-        <v>358.0</v>
+        <v>848.0</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D36" s="3">
-        <v>44334.0</v>
+        <v>44296.0</v>
       </c>
       <c r="E36" s="4">
         <v>29.99</v>
@@ -1681,82 +1723,82 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2">
-        <v>393.0</v>
+        <v>1016.0</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3">
-        <v>44334.0</v>
+        <v>44332.0</v>
       </c>
       <c r="E37" s="4">
-        <v>34.99</v>
+        <v>0.0</v>
       </c>
       <c r="F37" s="4">
         <v>0.0</v>
       </c>
       <c r="G37" s="4">
-        <v>34.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2">
-        <v>410.0</v>
+        <v>921.0</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D38" s="3">
         <v>44334.0</v>
       </c>
       <c r="E38" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
       <c r="F38" s="4">
         <v>0.0</v>
       </c>
       <c r="G38" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2">
-        <v>345.0</v>
+        <v>935.0</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D39" s="3">
         <v>44334.0</v>
       </c>
       <c r="E39" s="4">
-        <v>69.99</v>
+        <v>29.99</v>
       </c>
       <c r="F39" s="4">
         <v>0.0</v>
       </c>
       <c r="G39" s="4">
-        <v>69.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2">
-        <v>295.0</v>
+        <v>737.0</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D40" s="3">
         <v>44334.0</v>
@@ -1773,591 +1815,591 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2">
-        <v>902.0</v>
+        <v>740.0</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D41" s="3">
         <v>44334.0</v>
       </c>
       <c r="E41" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="F41" s="4">
         <v>0.0</v>
       </c>
       <c r="G41" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2">
-        <v>923.0</v>
+        <v>563.0</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D42" s="3">
         <v>44334.0</v>
       </c>
       <c r="E42" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
       <c r="F42" s="4">
         <v>0.0</v>
       </c>
       <c r="G42" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2">
-        <v>928.0</v>
+        <v>515.0</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3">
         <v>44334.0</v>
       </c>
       <c r="E43" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="F43" s="4">
         <v>0.0</v>
       </c>
       <c r="G43" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2">
-        <v>607.0</v>
+        <v>576.0</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D44" s="3">
-        <v>44335.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E44" s="4">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="F44" s="4">
         <v>0.0</v>
       </c>
       <c r="G44" s="4">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2">
-        <v>888.0</v>
+        <v>620.0</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D45" s="3">
-        <v>44335.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E45" s="4">
-        <v>0.0</v>
+        <v>34.99</v>
       </c>
       <c r="F45" s="4">
         <v>0.0</v>
       </c>
       <c r="G45" s="4">
-        <v>0.0</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2">
-        <v>690.0</v>
+        <v>629.0</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D46" s="3">
-        <v>44378.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E46" s="4">
-        <v>29.99</v>
+        <v>0.0</v>
       </c>
       <c r="F46" s="4">
         <v>0.0</v>
       </c>
       <c r="G46" s="4">
-        <v>29.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2">
-        <v>703.0</v>
+        <v>634.0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D47" s="3">
-        <v>44383.0</v>
+        <v>44334.0</v>
       </c>
       <c r="E47" s="4">
-        <v>39.99</v>
+        <v>19.99</v>
       </c>
       <c r="F47" s="4">
         <v>0.0</v>
       </c>
       <c r="G47" s="4">
-        <v>39.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2">
-        <v>784.0</v>
+        <v>838.0</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D48" s="3">
-        <v>44383.0</v>
+        <v>44335.0</v>
       </c>
       <c r="E48" s="4">
-        <v>0.0</v>
+        <v>19.99</v>
       </c>
       <c r="F48" s="4">
         <v>0.0</v>
       </c>
       <c r="G48" s="4">
-        <v>0.0</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2">
-        <v>639.0</v>
+        <v>800.0</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D49" s="3">
-        <v>44389.0</v>
+        <v>44335.0</v>
       </c>
       <c r="E49" s="4">
-        <v>34.99</v>
+        <v>0.0</v>
       </c>
       <c r="F49" s="4">
         <v>0.0</v>
       </c>
       <c r="G49" s="4">
-        <v>34.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2">
-        <v>625.0</v>
+        <v>411.0</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D50" s="3">
-        <v>44411.0</v>
+        <v>44378.0</v>
       </c>
       <c r="E50" s="4">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
       <c r="F50" s="4">
         <v>0.0</v>
       </c>
       <c r="G50" s="4">
-        <v>49.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2">
-        <v>102.0</v>
+        <v>936.0</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D51" s="3">
-        <v>44422.0</v>
+        <v>44383.0</v>
       </c>
       <c r="E51" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
       <c r="F51" s="4">
         <v>0.0</v>
       </c>
       <c r="G51" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2">
-        <v>215.0</v>
+        <v>1012.0</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="D52" s="3">
-        <v>44422.0</v>
+        <v>44383.0</v>
       </c>
       <c r="E52" s="4">
-        <v>9.99</v>
+        <v>0.0</v>
       </c>
       <c r="F52" s="4">
         <v>0.0</v>
       </c>
       <c r="G52" s="4">
-        <v>9.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2">
-        <v>275.0</v>
+        <v>878.0</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D53" s="3">
-        <v>44432.0</v>
+        <v>44389.0</v>
       </c>
       <c r="E53" s="4">
-        <v>19.99</v>
+        <v>34.99</v>
       </c>
       <c r="F53" s="4">
         <v>0.0</v>
       </c>
       <c r="G53" s="4">
-        <v>19.99</v>
+        <v>34.99</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2">
-        <v>669.0</v>
+        <v>863.0</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D54" s="3">
-        <v>44446.0</v>
+        <v>44411.0</v>
       </c>
       <c r="E54" s="4">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
       <c r="F54" s="4">
         <v>0.0</v>
       </c>
       <c r="G54" s="4">
-        <v>29.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2">
-        <v>733.0</v>
+        <v>378.0</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D55" s="3">
-        <v>44446.0</v>
+        <v>44422.0</v>
       </c>
       <c r="E55" s="4">
-        <v>5.99</v>
+        <v>12.99</v>
       </c>
       <c r="F55" s="4">
         <v>0.0</v>
       </c>
       <c r="G55" s="4">
-        <v>5.99</v>
+        <v>12.99</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2">
-        <v>821.0</v>
+        <v>187.0</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D56" s="3">
-        <v>44446.0</v>
+        <v>44422.0</v>
       </c>
       <c r="E56" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
       <c r="F56" s="4">
         <v>0.0</v>
       </c>
       <c r="G56" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2">
-        <v>425.0</v>
+        <v>494.0</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D57" s="3">
-        <v>44461.0</v>
+        <v>44432.0</v>
       </c>
       <c r="E57" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
       <c r="F57" s="4">
         <v>0.0</v>
       </c>
       <c r="G57" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2">
-        <v>793.0</v>
+        <v>603.0</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D58" s="3">
-        <v>44467.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E58" s="4">
-        <v>29.99</v>
+        <v>69.99</v>
       </c>
       <c r="F58" s="4">
         <v>0.0</v>
       </c>
       <c r="G58" s="4">
-        <v>29.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2">
-        <v>559.0</v>
+        <v>907.0</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D59" s="3">
-        <v>44469.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E59" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
       <c r="F59" s="4">
         <v>0.0</v>
       </c>
       <c r="G59" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2">
-        <v>530.0</v>
+        <v>964.0</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D60" s="3">
-        <v>44474.0</v>
+        <v>44446.0</v>
       </c>
       <c r="E60" s="4">
-        <v>59.99</v>
+        <v>5.99</v>
       </c>
       <c r="F60" s="4">
         <v>0.0</v>
       </c>
       <c r="G60" s="4">
-        <v>59.99</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2">
-        <v>840.0</v>
+        <v>647.0</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D61" s="3">
-        <v>44474.0</v>
+        <v>44461.0</v>
       </c>
       <c r="E61" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
       <c r="F61" s="4">
         <v>0.0</v>
       </c>
       <c r="G61" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2">
-        <v>560.0</v>
+        <v>510.0</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D62" s="3">
-        <v>44489.0</v>
+        <v>44467.0</v>
       </c>
       <c r="E62" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
       <c r="F62" s="4">
         <v>0.0</v>
       </c>
       <c r="G62" s="4">
-        <v>0.0</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2">
-        <v>457.0</v>
+        <v>792.0</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D63" s="3">
-        <v>44502.0</v>
+        <v>44469.0</v>
       </c>
       <c r="E63" s="4">
-        <v>39.99</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="4">
         <v>0.0</v>
       </c>
       <c r="G63" s="4">
-        <v>39.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2">
-        <v>853.0</v>
+        <v>773.0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D64" s="3">
-        <v>44502.0</v>
+        <v>44474.0</v>
       </c>
       <c r="E64" s="4">
-        <v>19.99</v>
+        <v>59.99</v>
       </c>
       <c r="F64" s="4">
         <v>0.0</v>
       </c>
       <c r="G64" s="4">
-        <v>19.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2">
-        <v>830.0</v>
+        <v>1023.0</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D65" s="3">
-        <v>44502.0</v>
+        <v>44474.0</v>
       </c>
       <c r="E65" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
       <c r="F65" s="4">
         <v>0.0</v>
       </c>
       <c r="G65" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2">
-        <v>745.0</v>
+        <v>793.0</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D66" s="3">
-        <v>44502.0</v>
+        <v>44489.0</v>
       </c>
       <c r="E66" s="4">
         <v>0.0</v>
@@ -2371,200 +2413,200 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2">
-        <v>771.0</v>
+        <v>680.0</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D67" s="3">
         <v>44502.0</v>
       </c>
       <c r="E67" s="4">
-        <v>39.99</v>
+        <v>19.99</v>
       </c>
       <c r="F67" s="4">
         <v>0.0</v>
       </c>
       <c r="G67" s="4">
-        <v>39.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2">
-        <v>779.0</v>
+        <v>270.0</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D68" s="3">
         <v>44502.0</v>
       </c>
       <c r="E68" s="4">
-        <v>24.99</v>
+        <v>39.99</v>
       </c>
       <c r="F68" s="4">
         <v>0.0</v>
       </c>
       <c r="G68" s="4">
-        <v>24.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2">
-        <v>835.0</v>
+        <v>621.0</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D69" s="3">
-        <v>44539.0</v>
+        <v>44502.0</v>
       </c>
       <c r="E69" s="4">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="F69" s="4">
         <v>0.0</v>
       </c>
       <c r="G69" s="4">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2">
-        <v>464.0</v>
+        <v>1000.0</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D70" s="3">
-        <v>44539.0</v>
+        <v>44502.0</v>
       </c>
       <c r="E70" s="4">
-        <v>59.99</v>
+        <v>39.99</v>
       </c>
       <c r="F70" s="4">
         <v>0.0</v>
       </c>
       <c r="G70" s="4">
-        <v>59.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2">
-        <v>503.0</v>
+        <v>1007.0</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D71" s="3">
-        <v>44539.0</v>
+        <v>44502.0</v>
       </c>
       <c r="E71" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="F71" s="4">
         <v>0.0</v>
       </c>
       <c r="G71" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2">
-        <v>881.0</v>
+        <v>976.0</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D72" s="3">
-        <v>44555.0</v>
+        <v>44502.0</v>
       </c>
       <c r="E72" s="4">
-        <v>79.99</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="4">
         <v>0.0</v>
       </c>
       <c r="G72" s="4">
-        <v>79.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2">
-        <v>850.0</v>
+        <v>1022.0</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D73" s="3">
-        <v>44555.0</v>
+        <v>44539.0</v>
       </c>
       <c r="E73" s="4">
-        <v>39.99</v>
+        <v>14.99</v>
       </c>
       <c r="F73" s="4">
         <v>0.0</v>
       </c>
       <c r="G73" s="4">
-        <v>39.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2">
-        <v>743.0</v>
+        <v>684.0</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D74" s="3">
-        <v>44555.0</v>
+        <v>44539.0</v>
       </c>
       <c r="E74" s="4">
-        <v>24.99</v>
+        <v>59.99</v>
       </c>
       <c r="F74" s="4">
         <v>0.0</v>
       </c>
       <c r="G74" s="4">
-        <v>24.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2">
-        <v>813.0</v>
+        <v>741.0</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D75" s="3">
-        <v>44565.0</v>
+        <v>44539.0</v>
       </c>
       <c r="E75" s="4">
         <v>29.99</v>
@@ -2578,243 +2620,243 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2">
-        <v>816.0</v>
+        <v>672.0</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D76" s="3">
-        <v>44565.0</v>
+        <v>44555.0</v>
       </c>
       <c r="E76" s="4">
-        <v>69.99</v>
+        <v>39.99</v>
       </c>
       <c r="F76" s="4">
         <v>0.0</v>
       </c>
       <c r="G76" s="4">
-        <v>69.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2">
-        <v>529.0</v>
+        <v>1028.0</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D77" s="3">
-        <v>44565.0</v>
+        <v>44555.0</v>
       </c>
       <c r="E77" s="4">
-        <v>59.99</v>
+        <v>79.99</v>
       </c>
       <c r="F77" s="4">
         <v>0.0</v>
       </c>
       <c r="G77" s="4">
-        <v>59.99</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2">
-        <v>831.0</v>
+        <v>973.0</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D78" s="3">
-        <v>44574.0</v>
+        <v>44555.0</v>
       </c>
       <c r="E78" s="4">
-        <v>0.0</v>
+        <v>24.99</v>
       </c>
       <c r="F78" s="4">
         <v>0.0</v>
       </c>
       <c r="G78" s="4">
-        <v>0.0</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2">
-        <v>314.0</v>
+        <v>772.0</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D79" s="3">
-        <v>44590.0</v>
+        <v>44565.0</v>
       </c>
       <c r="E79" s="4">
-        <v>69.99</v>
+        <v>59.99</v>
       </c>
       <c r="F79" s="4">
         <v>0.0</v>
       </c>
       <c r="G79" s="4">
-        <v>69.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2">
-        <v>912.0</v>
+        <v>580.0</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D80" s="3">
-        <v>44590.0</v>
+        <v>44565.0</v>
       </c>
       <c r="E80" s="4">
-        <v>29.99</v>
+        <v>69.99</v>
       </c>
       <c r="F80" s="4">
         <v>0.0</v>
       </c>
       <c r="G80" s="4">
-        <v>29.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2">
-        <v>674.0</v>
+        <v>572.0</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>44593.0</v>
+        <v>44565.0</v>
       </c>
       <c r="E81" s="4">
-        <v>69.99</v>
+        <v>29.99</v>
       </c>
       <c r="F81" s="4">
         <v>0.0</v>
       </c>
       <c r="G81" s="4">
-        <v>69.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2">
-        <v>657.0</v>
+        <v>532.0</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D82" s="3">
-        <v>44593.0</v>
+        <v>44590.0</v>
       </c>
       <c r="E82" s="4">
-        <v>9.99</v>
+        <v>69.99</v>
       </c>
       <c r="F82" s="4">
         <v>0.0</v>
       </c>
       <c r="G82" s="4">
-        <v>9.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2">
-        <v>877.0</v>
+        <v>883.0</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D83" s="3">
-        <v>44593.0</v>
+        <v>44590.0</v>
       </c>
       <c r="E83" s="4">
-        <v>44.99</v>
+        <v>29.99</v>
       </c>
       <c r="F83" s="4">
         <v>0.0</v>
       </c>
       <c r="G83" s="4">
-        <v>44.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2">
-        <v>833.0</v>
+        <v>774.0</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D84" s="3">
-        <v>44621.0</v>
+        <v>44593.0</v>
       </c>
       <c r="E84" s="4">
-        <v>29.99</v>
+        <v>44.99</v>
       </c>
       <c r="F84" s="4">
         <v>0.0</v>
       </c>
       <c r="G84" s="4">
-        <v>29.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2">
-        <v>620.0</v>
+        <v>593.0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D85" s="3">
-        <v>44621.0</v>
+        <v>44593.0</v>
       </c>
       <c r="E85" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
       <c r="F85" s="4">
         <v>0.0</v>
       </c>
       <c r="G85" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2">
-        <v>282.0</v>
+        <v>502.0</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D86" s="3">
         <v>44621.0</v>
@@ -2831,131 +2873,131 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2">
-        <v>586.0</v>
+        <v>633.0</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D87" s="3">
-        <v>44656.0</v>
+        <v>44621.0</v>
       </c>
       <c r="E87" s="4">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
       <c r="F87" s="4">
         <v>0.0</v>
       </c>
       <c r="G87" s="4">
-        <v>24.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2">
-        <v>335.0</v>
+        <v>859.0</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D88" s="3">
-        <v>44684.0</v>
+        <v>44621.0</v>
       </c>
       <c r="E88" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
       <c r="F88" s="4">
         <v>0.0</v>
       </c>
       <c r="G88" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2">
-        <v>827.0</v>
+        <v>820.0</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D89" s="3">
-        <v>44684.0</v>
+        <v>44656.0</v>
       </c>
       <c r="E89" s="4">
-        <v>79.99</v>
+        <v>24.99</v>
       </c>
       <c r="F89" s="4">
         <v>0.0</v>
       </c>
       <c r="G89" s="4">
-        <v>79.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2">
-        <v>663.0</v>
+        <v>617.0</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D90" s="3">
         <v>44684.0</v>
       </c>
       <c r="E90" s="4">
-        <v>19.99</v>
+        <v>79.99</v>
       </c>
       <c r="F90" s="4">
         <v>0.0</v>
       </c>
       <c r="G90" s="4">
-        <v>19.99</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2">
-        <v>868.0</v>
+        <v>556.0</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D91" s="3">
-        <v>44720.0</v>
+        <v>44684.0</v>
       </c>
       <c r="E91" s="4">
-        <v>49.99</v>
+        <v>19.99</v>
       </c>
       <c r="F91" s="4">
         <v>0.0</v>
       </c>
       <c r="G91" s="4">
-        <v>49.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2">
-        <v>476.0</v>
+        <v>903.0</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D92" s="3">
-        <v>44776.0</v>
+        <v>44684.0</v>
       </c>
       <c r="E92" s="4">
         <v>19.99</v>
@@ -2969,39 +3011,39 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2">
-        <v>505.0</v>
+        <v>751.0</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D93" s="3">
-        <v>44811.0</v>
+        <v>44720.0</v>
       </c>
       <c r="E93" s="4">
-        <v>69.99</v>
+        <v>49.99</v>
       </c>
       <c r="F93" s="4">
         <v>0.0</v>
       </c>
       <c r="G93" s="4">
-        <v>69.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2">
-        <v>414.0</v>
+        <v>697.0</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D94" s="3">
-        <v>44811.0</v>
+        <v>44776.0</v>
       </c>
       <c r="E94" s="4">
         <v>19.99</v>
@@ -3015,36 +3057,36 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2">
-        <v>815.0</v>
+        <v>745.0</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D95" s="3">
         <v>44811.0</v>
       </c>
       <c r="E95" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
       <c r="F95" s="4">
         <v>0.0</v>
       </c>
       <c r="G95" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2">
-        <v>917.0</v>
+        <v>638.0</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D96" s="3">
         <v>44811.0</v>
@@ -3061,775 +3103,775 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2">
-        <v>897.0</v>
+        <v>1034.0</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D97" s="3">
-        <v>44817.0</v>
+        <v>44811.0</v>
       </c>
       <c r="E97" s="4">
-        <v>44.99</v>
+        <v>19.99</v>
       </c>
       <c r="F97" s="4">
         <v>0.0</v>
       </c>
       <c r="G97" s="4">
-        <v>44.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2">
-        <v>843.0</v>
+        <v>1018.0</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" s="3">
-        <v>44839.0</v>
+        <v>44811.0</v>
       </c>
       <c r="E98" s="4">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
       <c r="F98" s="4">
         <v>0.0</v>
       </c>
       <c r="G98" s="4">
-        <v>49.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2">
-        <v>441.0</v>
+        <v>821.0</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D99" s="3">
-        <v>44839.0</v>
+        <v>44817.0</v>
       </c>
       <c r="E99" s="4">
-        <v>19.99</v>
+        <v>11.25</v>
       </c>
       <c r="F99" s="4">
         <v>0.0</v>
       </c>
       <c r="G99" s="4">
-        <v>19.99</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2">
-        <v>839.0</v>
+        <v>822.0</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D100" s="3">
-        <v>44867.0</v>
+        <v>44817.0</v>
       </c>
       <c r="E100" s="4">
-        <v>20.99</v>
+        <v>11.25</v>
       </c>
       <c r="F100" s="4">
         <v>0.0</v>
       </c>
       <c r="G100" s="4">
-        <v>20.99</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2">
-        <v>869.0</v>
+        <v>823.0</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D101" s="3">
-        <v>44867.0</v>
+        <v>44817.0</v>
       </c>
       <c r="E101" s="4">
-        <v>59.99</v>
+        <v>11.24</v>
       </c>
       <c r="F101" s="4">
         <v>0.0</v>
       </c>
       <c r="G101" s="4">
-        <v>59.99</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2">
-        <v>823.0</v>
+        <v>357.0</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D102" s="3">
-        <v>44914.0</v>
+        <v>44817.0</v>
       </c>
       <c r="E102" s="4">
-        <v>19.99</v>
+        <v>11.25</v>
       </c>
       <c r="F102" s="4">
         <v>0.0</v>
       </c>
       <c r="G102" s="4">
-        <v>19.99</v>
+        <v>11.25</v>
       </c>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2">
-        <v>789.0</v>
+        <v>655.0</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D103" s="3">
-        <v>44914.0</v>
+        <v>44839.0</v>
       </c>
       <c r="E103" s="4">
-        <v>0.0</v>
+        <v>49.99</v>
       </c>
       <c r="F103" s="4">
         <v>0.0</v>
       </c>
       <c r="G103" s="4">
-        <v>0.0</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2">
-        <v>272.0</v>
+        <v>663.0</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D104" s="3">
-        <v>44915.0</v>
+        <v>44839.0</v>
       </c>
       <c r="E104" s="4">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
       <c r="F104" s="4">
         <v>0.0</v>
       </c>
       <c r="G104" s="4">
-        <v>9.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2">
-        <v>879.0</v>
+        <v>645.0</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D105" s="3">
-        <v>44921.0</v>
+        <v>44867.0</v>
       </c>
       <c r="E105" s="4">
-        <v>24.99</v>
+        <v>20.99</v>
       </c>
       <c r="F105" s="4">
         <v>0.0</v>
       </c>
       <c r="G105" s="4">
-        <v>24.99</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2">
-        <v>822.0</v>
+        <v>753.0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D106" s="3">
-        <v>44922.0</v>
+        <v>44867.0</v>
       </c>
       <c r="E106" s="4">
-        <v>54.99</v>
+        <v>59.99</v>
       </c>
       <c r="F106" s="4">
         <v>0.0</v>
       </c>
       <c r="G106" s="4">
-        <v>54.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2">
-        <v>413.0</v>
+        <v>501.0</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D107" s="3">
-        <v>44923.0</v>
+        <v>44914.0</v>
       </c>
       <c r="E107" s="4">
-        <v>16.99</v>
+        <v>0.0</v>
       </c>
       <c r="F107" s="4">
         <v>0.0</v>
       </c>
       <c r="G107" s="4">
-        <v>16.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2">
-        <v>794.0</v>
+        <v>490.0</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D108" s="3">
-        <v>44929.0</v>
+        <v>44915.0</v>
       </c>
       <c r="E108" s="4">
-        <v>17.99</v>
+        <v>9.99</v>
       </c>
       <c r="F108" s="4">
         <v>0.0</v>
       </c>
       <c r="G108" s="4">
-        <v>17.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2">
-        <v>814.0</v>
+        <v>781.0</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D109" s="3">
-        <v>44964.0</v>
+        <v>44921.0</v>
       </c>
       <c r="E109" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="F109" s="4">
         <v>0.0</v>
       </c>
       <c r="G109" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2">
-        <v>841.0</v>
+        <v>605.0</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D110" s="3">
-        <v>44964.0</v>
+        <v>44922.0</v>
       </c>
       <c r="E110" s="4">
-        <v>84.99</v>
+        <v>54.99</v>
       </c>
       <c r="F110" s="4">
         <v>0.0</v>
       </c>
       <c r="G110" s="4">
-        <v>84.99</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2">
-        <v>236.0</v>
+        <v>637.0</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D111" s="3">
-        <v>44971.0</v>
+        <v>44923.0</v>
       </c>
       <c r="E111" s="4">
-        <v>19.99</v>
+        <v>16.99</v>
       </c>
       <c r="F111" s="4">
         <v>0.0</v>
       </c>
       <c r="G111" s="4">
-        <v>19.99</v>
+        <v>16.99</v>
       </c>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2">
-        <v>195.0</v>
+        <v>511.0</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D112" s="3">
-        <v>44971.0</v>
+        <v>44929.0</v>
       </c>
       <c r="E112" s="4">
-        <v>4.99</v>
+        <v>17.99</v>
       </c>
       <c r="F112" s="4">
         <v>0.0</v>
       </c>
       <c r="G112" s="4">
-        <v>4.99</v>
+        <v>17.99</v>
       </c>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2">
-        <v>327.0</v>
+        <v>574.0</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D113" s="3">
-        <v>44992.0</v>
+        <v>44964.0</v>
       </c>
       <c r="E113" s="4">
-        <v>69.99</v>
+        <v>59.98</v>
       </c>
       <c r="F113" s="4">
         <v>0.0</v>
       </c>
       <c r="G113" s="4">
-        <v>69.99</v>
+        <v>59.98</v>
       </c>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2">
-        <v>497.0</v>
+        <v>1024.0</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D114" s="3">
-        <v>44992.0</v>
+        <v>44964.0</v>
       </c>
       <c r="E114" s="4">
-        <v>19.99</v>
+        <v>84.99</v>
       </c>
       <c r="F114" s="4">
         <v>0.0</v>
       </c>
       <c r="G114" s="4">
-        <v>19.99</v>
+        <v>84.99</v>
       </c>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2">
-        <v>795.0</v>
+        <v>418.0</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D115" s="3">
-        <v>44992.0</v>
+        <v>44971.0</v>
       </c>
       <c r="E115" s="4">
-        <v>79.99</v>
+        <v>19.99</v>
       </c>
       <c r="F115" s="4">
         <v>0.0</v>
       </c>
       <c r="G115" s="4">
-        <v>79.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2">
-        <v>878.0</v>
+        <v>343.0</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D116" s="3">
-        <v>45014.0</v>
+        <v>44971.0</v>
       </c>
       <c r="E116" s="4">
-        <v>44.99</v>
+        <v>4.99</v>
       </c>
       <c r="F116" s="4">
         <v>0.0</v>
       </c>
       <c r="G116" s="4">
-        <v>44.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2">
-        <v>863.0</v>
+        <v>544.0</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D117" s="3">
-        <v>45020.0</v>
+        <v>44992.0</v>
       </c>
       <c r="E117" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
       <c r="F117" s="4">
         <v>0.0</v>
       </c>
       <c r="G117" s="4">
-        <v>0.0</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2">
-        <v>905.0</v>
+        <v>516.0</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D118" s="3">
-        <v>45020.0</v>
+        <v>44992.0</v>
       </c>
       <c r="E118" s="4">
-        <v>24.99</v>
+        <v>79.99</v>
       </c>
       <c r="F118" s="4">
         <v>0.0</v>
       </c>
       <c r="G118" s="4">
-        <v>24.99</v>
+        <v>79.99</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2">
-        <v>837.0</v>
+        <v>733.0</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D119" s="3">
-        <v>45048.0</v>
+        <v>44992.0</v>
       </c>
       <c r="E119" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
       <c r="F119" s="4">
         <v>0.0</v>
       </c>
       <c r="G119" s="4">
-        <v>69.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2">
-        <v>354.0</v>
+        <v>780.0</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D120" s="3">
-        <v>45048.0</v>
+        <v>45014.0</v>
       </c>
       <c r="E120" s="4">
-        <v>21.99</v>
+        <v>44.99</v>
       </c>
       <c r="F120" s="4">
         <v>0.0</v>
       </c>
       <c r="G120" s="4">
-        <v>21.99</v>
+        <v>44.99</v>
       </c>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2">
-        <v>920.0</v>
+        <v>856.0</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D121" s="3">
-        <v>45050.0</v>
+        <v>45020.0</v>
       </c>
       <c r="E121" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="F121" s="4">
         <v>0.0</v>
       </c>
       <c r="G121" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2">
-        <v>919.0</v>
+        <v>711.0</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D122" s="3">
-        <v>45083.0</v>
+        <v>45020.0</v>
       </c>
       <c r="E122" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
       <c r="F122" s="4">
         <v>0.0</v>
       </c>
       <c r="G122" s="4">
-        <v>19.99</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2">
-        <v>849.0</v>
+        <v>640.0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D123" s="3">
-        <v>45083.0</v>
+        <v>45048.0</v>
       </c>
       <c r="E123" s="4">
-        <v>59.99</v>
+        <v>69.99</v>
       </c>
       <c r="F123" s="4">
         <v>0.0</v>
       </c>
       <c r="G123" s="4">
-        <v>59.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2">
-        <v>866.0</v>
+        <v>573.0</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D124" s="3">
-        <v>45083.0</v>
+        <v>45048.0</v>
       </c>
       <c r="E124" s="4">
-        <v>39.99</v>
+        <v>21.99</v>
       </c>
       <c r="F124" s="4">
         <v>0.0</v>
       </c>
       <c r="G124" s="4">
-        <v>39.99</v>
+        <v>21.99</v>
       </c>
     </row>
     <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2">
-        <v>801.0</v>
+        <v>908.0</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D125" s="3">
-        <v>45111.0</v>
+        <v>45050.0</v>
       </c>
       <c r="E125" s="4">
-        <v>74.99</v>
+        <v>29.99</v>
       </c>
       <c r="F125" s="4">
         <v>0.0</v>
       </c>
       <c r="G125" s="4">
-        <v>74.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2">
-        <v>819.0</v>
+        <v>901.0</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D126" s="3">
-        <v>45111.0</v>
+        <v>45083.0</v>
       </c>
       <c r="E126" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
       <c r="F126" s="4">
         <v>0.0</v>
       </c>
       <c r="G126" s="4">
-        <v>29.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2">
-        <v>787.0</v>
+        <v>668.0</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D127" s="3">
-        <v>45111.0</v>
+        <v>45083.0</v>
       </c>
       <c r="E127" s="4">
-        <v>29.99</v>
+        <v>59.99</v>
       </c>
       <c r="F127" s="4">
         <v>0.0</v>
       </c>
       <c r="G127" s="4">
-        <v>29.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2">
-        <v>812.0</v>
+        <v>744.0</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D128" s="3">
-        <v>45140.0</v>
+        <v>45083.0</v>
       </c>
       <c r="E128" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
       <c r="F128" s="4">
         <v>0.0</v>
       </c>
       <c r="G128" s="4">
-        <v>19.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2">
-        <v>893.0</v>
+        <v>531.0</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D129" s="3">
-        <v>45174.0</v>
+        <v>45111.0</v>
       </c>
       <c r="E129" s="4">
-        <v>69.99</v>
+        <v>74.99</v>
       </c>
       <c r="F129" s="4">
         <v>0.0</v>
       </c>
       <c r="G129" s="4">
-        <v>69.99</v>
+        <v>74.99</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2">
-        <v>403.0</v>
+        <v>597.0</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D130" s="3">
-        <v>45174.0</v>
+        <v>45111.0</v>
       </c>
       <c r="E130" s="4">
         <v>29.99</v>
@@ -3843,312 +3885,312 @@
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2">
-        <v>572.0</v>
+        <v>496.0</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D131" s="3">
-        <v>45176.0</v>
+        <v>45111.0</v>
       </c>
       <c r="E131" s="4">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
       <c r="F131" s="4">
         <v>0.0</v>
       </c>
       <c r="G131" s="4">
-        <v>4.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2">
-        <v>501.0</v>
+        <v>570.0</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D132" s="3">
-        <v>45176.0</v>
+        <v>45140.0</v>
       </c>
       <c r="E132" s="4">
-        <v>15.99</v>
+        <v>19.99</v>
       </c>
       <c r="F132" s="4">
         <v>0.0</v>
       </c>
       <c r="G132" s="4">
-        <v>15.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2">
-        <v>630.0</v>
+        <v>628.0</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D133" s="3">
-        <v>45176.0</v>
+        <v>45174.0</v>
       </c>
       <c r="E133" s="4">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
       <c r="F133" s="4">
         <v>0.0</v>
       </c>
       <c r="G133" s="4">
-        <v>19.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2">
-        <v>660.0</v>
+        <v>807.0</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D134" s="3">
-        <v>45176.0</v>
+        <v>45174.0</v>
       </c>
       <c r="E134" s="4">
-        <v>9.99</v>
+        <v>69.99</v>
       </c>
       <c r="F134" s="4">
         <v>0.0</v>
       </c>
       <c r="G134" s="4">
-        <v>9.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2">
-        <v>865.0</v>
+        <v>803.0</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D135" s="3">
         <v>45176.0</v>
       </c>
       <c r="E135" s="4">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
       <c r="F135" s="4">
         <v>0.0</v>
       </c>
       <c r="G135" s="4">
-        <v>6.99</v>
+        <v>4.99</v>
       </c>
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2">
-        <v>856.0</v>
+        <v>869.0</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D136" s="3">
         <v>45176.0</v>
       </c>
       <c r="E136" s="4">
-        <v>59.99</v>
+        <v>19.99</v>
       </c>
       <c r="F136" s="4">
         <v>0.0</v>
       </c>
       <c r="G136" s="4">
-        <v>59.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2">
-        <v>818.0</v>
+        <v>899.0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D137" s="3">
         <v>45176.0</v>
       </c>
       <c r="E137" s="4">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F137" s="4">
         <v>0.0</v>
       </c>
       <c r="G137" s="4">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2">
-        <v>719.0</v>
+        <v>743.0</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D138" s="3">
         <v>45176.0</v>
       </c>
       <c r="E138" s="4">
-        <v>24.99</v>
+        <v>6.99</v>
       </c>
       <c r="F138" s="4">
         <v>0.0</v>
       </c>
       <c r="G138" s="4">
-        <v>24.99</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2">
-        <v>838.0</v>
+        <v>738.0</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D139" s="3">
-        <v>45177.0</v>
+        <v>45176.0</v>
       </c>
       <c r="E139" s="4">
-        <v>19.99</v>
+        <v>15.99</v>
       </c>
       <c r="F139" s="4">
         <v>0.0</v>
       </c>
       <c r="G139" s="4">
-        <v>19.99</v>
+        <v>15.99</v>
       </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2">
-        <v>509.0</v>
+        <v>691.0</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D140" s="3">
-        <v>45177.0</v>
+        <v>45176.0</v>
       </c>
       <c r="E140" s="4">
-        <v>69.99</v>
+        <v>59.99</v>
       </c>
       <c r="F140" s="4">
         <v>0.0</v>
       </c>
       <c r="G140" s="4">
-        <v>69.99</v>
+        <v>59.99</v>
       </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2">
-        <v>539.0</v>
+        <v>591.0</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D141" s="3">
-        <v>45177.0</v>
+        <v>45176.0</v>
       </c>
       <c r="E141" s="4">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
       <c r="F141" s="4">
         <v>0.0</v>
       </c>
       <c r="G141" s="4">
-        <v>9.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2">
-        <v>412.0</v>
+        <v>952.0</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D142" s="3">
-        <v>45177.0</v>
+        <v>45176.0</v>
       </c>
       <c r="E142" s="4">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
       <c r="F142" s="4">
         <v>0.0</v>
       </c>
       <c r="G142" s="4">
-        <v>19.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2">
-        <v>442.0</v>
+        <v>930.0</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D143" s="3">
         <v>45177.0</v>
       </c>
       <c r="E143" s="4">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
       <c r="F143" s="4">
         <v>0.0</v>
       </c>
       <c r="G143" s="4">
-        <v>14.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2">
-        <v>925.0</v>
+        <v>636.0</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D144" s="3">
         <v>45177.0</v>
@@ -4165,481 +4207,831 @@
     </row>
     <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2">
-        <v>871.0</v>
+        <v>119.0</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D145" s="3">
-        <v>45181.0</v>
+        <v>45177.0</v>
       </c>
       <c r="E145" s="4">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
       <c r="F145" s="4">
         <v>0.0</v>
       </c>
       <c r="G145" s="4">
-        <v>14.99</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2">
-        <v>508.0</v>
+        <v>641.0</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D146" s="3">
-        <v>45182.0</v>
+        <v>45177.0</v>
       </c>
       <c r="E146" s="4">
-        <v>49.99</v>
+        <v>19.99</v>
       </c>
       <c r="F146" s="4">
         <v>0.0</v>
       </c>
       <c r="G146" s="4">
-        <v>49.99</v>
+        <v>19.99</v>
       </c>
     </row>
     <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2">
-        <v>825.0</v>
+        <v>664.0</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D147" s="3">
-        <v>45202.0</v>
+        <v>45177.0</v>
       </c>
       <c r="E147" s="4">
-        <v>39.99</v>
+        <v>14.99</v>
       </c>
       <c r="F147" s="4">
         <v>0.0</v>
       </c>
       <c r="G147" s="4">
-        <v>39.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2">
-        <v>926.0</v>
+        <v>750.0</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D148" s="3">
-        <v>45202.0</v>
+        <v>45177.0</v>
       </c>
       <c r="E148" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
       <c r="F148" s="4">
         <v>0.0</v>
       </c>
       <c r="G148" s="4">
-        <v>39.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2">
-        <v>908.0</v>
+        <v>756.0</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D149" s="3">
-        <v>45202.0</v>
+        <v>45181.0</v>
       </c>
       <c r="E149" s="4">
-        <v>69.99</v>
+        <v>14.99</v>
       </c>
       <c r="F149" s="4">
         <v>0.0</v>
       </c>
       <c r="G149" s="4">
-        <v>69.99</v>
+        <v>14.99</v>
       </c>
     </row>
     <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2">
-        <v>862.0</v>
+        <v>309.0</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="D150" s="3">
-        <v>45219.0</v>
+        <v>45182.0</v>
       </c>
       <c r="E150" s="4">
-        <v>89.99</v>
+        <v>49.99</v>
       </c>
       <c r="F150" s="4">
         <v>0.0</v>
       </c>
       <c r="G150" s="4">
-        <v>89.99</v>
+        <v>49.99</v>
       </c>
     </row>
     <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2">
-        <v>788.0</v>
+        <v>613.0</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D151" s="3">
-        <v>45237.0</v>
+        <v>45202.0</v>
       </c>
       <c r="E151" s="4">
-        <v>29.99</v>
+        <v>39.99</v>
       </c>
       <c r="F151" s="4">
         <v>0.0</v>
       </c>
       <c r="G151" s="4">
-        <v>29.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2">
-        <v>890.0</v>
+        <v>871.0</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D152" s="3">
-        <v>45265.0</v>
+        <v>45202.0</v>
       </c>
       <c r="E152" s="4">
-        <v>24.99</v>
+        <v>69.99</v>
       </c>
       <c r="F152" s="4">
         <v>0.0</v>
       </c>
       <c r="G152" s="4">
-        <v>24.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2">
-        <v>880.0</v>
+        <v>925.0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D153" s="3">
-        <v>45265.0</v>
+        <v>45202.0</v>
       </c>
       <c r="E153" s="4">
-        <v>24.99</v>
+        <v>39.99</v>
       </c>
       <c r="F153" s="4">
         <v>0.0</v>
       </c>
       <c r="G153" s="4">
-        <v>24.99</v>
+        <v>39.99</v>
       </c>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2">
-        <v>854.0</v>
+        <v>1025.0</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D154" s="3">
-        <v>45265.0</v>
+        <v>45219.0</v>
       </c>
       <c r="E154" s="4">
-        <v>69.99</v>
+        <v>89.99</v>
       </c>
       <c r="F154" s="4">
         <v>0.0</v>
       </c>
       <c r="G154" s="4">
-        <v>69.99</v>
+        <v>89.99</v>
       </c>
     </row>
     <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2">
-        <v>857.0</v>
+        <v>497.0</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D155" s="3">
-        <v>45285.0</v>
+        <v>45237.0</v>
       </c>
       <c r="E155" s="4">
-        <v>54.99</v>
+        <v>29.99</v>
       </c>
       <c r="F155" s="4">
         <v>0.0</v>
       </c>
       <c r="G155" s="4">
-        <v>54.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2">
-        <v>929.0</v>
+        <v>682.0</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D156" s="3">
-        <v>45304.0</v>
+        <v>45265.0</v>
       </c>
       <c r="E156" s="4">
-        <v>24.99</v>
+        <v>69.99</v>
       </c>
       <c r="F156" s="4">
         <v>0.0</v>
       </c>
       <c r="G156" s="4">
-        <v>24.99</v>
+        <v>69.99</v>
       </c>
     </row>
     <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2">
-        <v>931.0</v>
+        <v>1031.0</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D157" s="3">
-        <v>45328.0</v>
+        <v>45265.0</v>
       </c>
       <c r="E157" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
       <c r="F157" s="4">
         <v>0.0</v>
       </c>
       <c r="G157" s="4">
-        <v>29.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2">
-        <v>932.0</v>
+        <v>695.0</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D158" s="3">
-        <v>45328.0</v>
+        <v>45285.0</v>
       </c>
       <c r="E158" s="4">
-        <v>59.99</v>
+        <v>54.99</v>
       </c>
       <c r="F158" s="4">
         <v>0.0</v>
       </c>
       <c r="G158" s="4">
-        <v>59.99</v>
+        <v>54.99</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2">
-        <v>935.0</v>
+        <v>755.0</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D159" s="3">
-        <v>45356.0</v>
+        <v>45304.0</v>
       </c>
       <c r="E159" s="4">
-        <v>79.99</v>
+        <v>24.99</v>
       </c>
       <c r="F159" s="4">
         <v>0.0</v>
       </c>
       <c r="G159" s="4">
-        <v>79.99</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2">
-        <v>936.0</v>
+        <v>802.0</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D160" s="3">
-        <v>45356.0</v>
+        <v>45328.0</v>
       </c>
       <c r="E160" s="4">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
       <c r="F160" s="4">
         <v>0.0</v>
       </c>
       <c r="G160" s="4">
-        <v>39.99</v>
+        <v>29.99</v>
       </c>
     </row>
     <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2">
-        <v>940.0</v>
-      </c>
-      <c r="B161" s="5" t="s">
-        <v>173</v>
+        <v>1032.0</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D161" s="6">
-        <v>45385.0</v>
-      </c>
-      <c r="E161" s="7">
-        <v>39.99</v>
-      </c>
-      <c r="F161" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G161" s="7">
-        <f t="shared" ref="G161:G162" si="1">E161-F161</f>
-        <v>39.99</v>
+        <v>50</v>
+      </c>
+      <c r="D161" s="3">
+        <v>45328.0</v>
+      </c>
+      <c r="E161" s="4">
+        <v>59.99</v>
+      </c>
+      <c r="F161" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G161" s="4">
+        <v>59.99</v>
       </c>
     </row>
     <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2">
-        <v>941.0</v>
-      </c>
-      <c r="B162" s="5" t="s">
-        <v>174</v>
+        <v>817.0</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D162" s="6">
+        <v>28</v>
+      </c>
+      <c r="D162" s="3">
+        <v>45356.0</v>
+      </c>
+      <c r="E162" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="F162" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G162" s="4">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="A163" s="2">
+        <v>604.0</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D163" s="3">
+        <v>45356.0</v>
+      </c>
+      <c r="E163" s="4">
+        <v>79.99</v>
+      </c>
+      <c r="F163" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G163" s="4">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="A164" s="2">
+        <v>888.0</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D164" s="3">
+        <v>45382.0</v>
+      </c>
+      <c r="E164" s="4">
+        <v>26.48</v>
+      </c>
+      <c r="F164" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G164" s="4">
+        <v>26.48</v>
+      </c>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="A165" s="2">
+        <v>819.0</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D165" s="3">
         <v>45385.0</v>
       </c>
-      <c r="E162" s="7">
+      <c r="E165" s="4">
         <v>16.99</v>
       </c>
-      <c r="F162" s="7">
-        <v>0.0</v>
-      </c>
-      <c r="G162" s="7">
+      <c r="F165" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G165" s="4">
+        <v>16.99</v>
+      </c>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="A166" s="2">
+        <v>734.0</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D166" s="3">
+        <v>45385.0</v>
+      </c>
+      <c r="E166" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="F166" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G166" s="4">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="A167" s="2">
+        <v>608.0</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D167" s="3">
+        <v>45423.0</v>
+      </c>
+      <c r="E167" s="4">
+        <v>6.96</v>
+      </c>
+      <c r="F167" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G167" s="4">
+        <v>6.96</v>
+      </c>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="A168" s="2">
+        <v>749.0</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D168" s="3">
+        <v>45475.0</v>
+      </c>
+      <c r="E168" s="4">
+        <v>79.99</v>
+      </c>
+      <c r="F168" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G168" s="4">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="A169" s="2">
+        <v>685.0</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D169" s="3">
+        <v>45511.0</v>
+      </c>
+      <c r="E169" s="4">
+        <v>59.99</v>
+      </c>
+      <c r="F169" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G169" s="4">
+        <v>59.99</v>
+      </c>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="A170" s="2">
+        <v>596.0</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D170" s="3">
+        <v>45511.0</v>
+      </c>
+      <c r="E170" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="F170" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G170" s="4">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="A171" s="2">
+        <v>642.0</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D171" s="3">
+        <v>45538.0</v>
+      </c>
+      <c r="E171" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="F171" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G171" s="4">
+        <v>39.99</v>
+      </c>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="A172" s="2">
+        <v>735.0</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D172" s="3">
+        <v>45538.0</v>
+      </c>
+      <c r="E172" s="4">
+        <v>69.99</v>
+      </c>
+      <c r="F172" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G172" s="4">
+        <v>69.99</v>
+      </c>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="A173" s="2">
+        <v>698.0</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D173" s="3">
+        <v>45538.0</v>
+      </c>
+      <c r="E173" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="F173" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G173" s="4">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="2">
+        <v>1015.0</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D174" s="3">
+        <v>45541.0</v>
+      </c>
+      <c r="E174" s="4">
+        <v>69.99</v>
+      </c>
+      <c r="F174" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G174" s="4">
+        <v>69.99</v>
+      </c>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="A175" s="2">
+        <v>1019.0</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D175" s="3">
+        <v>45542.0</v>
+      </c>
+      <c r="E175" s="4">
+        <v>79.99</v>
+      </c>
+      <c r="F175" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G175" s="4">
+        <v>79.99</v>
+      </c>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="A176" s="2">
+        <v>1014.0</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D176" s="3">
+        <v>45542.0</v>
+      </c>
+      <c r="E176" s="4">
+        <v>24.99</v>
+      </c>
+      <c r="F176" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G176" s="4">
+        <v>24.99</v>
+      </c>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="A177" s="2">
+        <v>739.0</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D177" s="3">
+        <v>45542.0</v>
+      </c>
+      <c r="E177" s="4">
+        <v>19.99</v>
+      </c>
+      <c r="F177" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G177" s="4">
+        <v>19.99</v>
+      </c>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="A178" s="2">
+        <v>1033.0</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D178" s="3">
+        <v>45554.0</v>
+      </c>
+      <c r="E178" s="4">
+        <v>29.99</v>
+      </c>
+      <c r="F178" s="4">
+        <v>0.0</v>
+      </c>
+      <c r="G178" s="4">
+        <v>29.99</v>
+      </c>
+    </row>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="E180" s="5">
+        <f t="shared" ref="E180:G180" si="1">SUM(E2:E178)</f>
+        <v>5541.43</v>
+      </c>
+      <c r="F180" s="5">
         <f t="shared" si="1"/>
-        <v>16.99</v>
-      </c>
-    </row>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1">
-      <c r="E164" s="8">
-        <f t="shared" ref="E164:G164" si="2">SUM(E2:E162)</f>
-        <v>4940.1</v>
-      </c>
-      <c r="F164" s="8">
+        <v>0</v>
+      </c>
+      <c r="G180" s="5">
+        <f t="shared" si="1"/>
+        <v>5541.43</v>
+      </c>
+      <c r="H180" s="6">
+        <f t="shared" ref="H180:H181" si="2">E180-F180</f>
+        <v>5541.43</v>
+      </c>
+      <c r="I180" s="7">
+        <f>COUNTA(B2:B178)</f>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="E181" s="5">
+        <f>E180/I180</f>
+        <v>31.30751412</v>
+      </c>
+      <c r="F181" s="5">
+        <f>F180/I180</f>
+        <v>0</v>
+      </c>
+      <c r="G181" s="5">
+        <f>G180/I180</f>
+        <v>31.30751412</v>
+      </c>
+      <c r="H181" s="6">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G164" s="8">
-        <f t="shared" si="2"/>
-        <v>4940.1</v>
-      </c>
-      <c r="H164" s="9">
-        <f t="shared" ref="H164:H165" si="3">E164-F164</f>
-        <v>4940.1</v>
-      </c>
-      <c r="I164" s="10">
-        <f>COUNTA(B2:B162)</f>
-        <v>161</v>
-      </c>
-    </row>
-    <row r="165" ht="15.75" customHeight="1">
-      <c r="E165" s="8">
-        <f>E164/I164</f>
-        <v>30.68385093</v>
-      </c>
-      <c r="F165" s="8">
-        <f>F164/I164</f>
-        <v>0</v>
-      </c>
-      <c r="G165" s="8">
-        <f>G164/I164</f>
-        <v>30.68385093</v>
-      </c>
-      <c r="H165" s="9">
-        <f t="shared" si="3"/>
-        <v>30.68385093</v>
-      </c>
-      <c r="I165" s="10">
-        <f>I164/I164</f>
+        <v>31.30751412</v>
+      </c>
+      <c r="I181" s="7">
+        <f>I180/I180</f>
         <v>1</v>
       </c>
     </row>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
     <row r="182" ht="15.75" customHeight="1"/>
     <row r="183" ht="15.75" customHeight="1"/>
     <row r="184" ht="15.75" customHeight="1"/>
@@ -5459,8 +5851,24 @@
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
+    <row r="1001" ht="15.75" customHeight="1"/>
+    <row r="1002" ht="15.75" customHeight="1"/>
+    <row r="1003" ht="15.75" customHeight="1"/>
+    <row r="1004" ht="15.75" customHeight="1"/>
+    <row r="1005" ht="15.75" customHeight="1"/>
+    <row r="1006" ht="15.75" customHeight="1"/>
+    <row r="1007" ht="15.75" customHeight="1"/>
+    <row r="1008" ht="15.75" customHeight="1"/>
+    <row r="1009" ht="15.75" customHeight="1"/>
+    <row r="1010" ht="15.75" customHeight="1"/>
+    <row r="1011" ht="15.75" customHeight="1"/>
+    <row r="1012" ht="15.75" customHeight="1"/>
+    <row r="1013" ht="15.75" customHeight="1"/>
+    <row r="1014" ht="15.75" customHeight="1"/>
+    <row r="1015" ht="15.75" customHeight="1"/>
+    <row r="1016" ht="15.75" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="$A$1:$G$162"/>
+  <autoFilter ref="$A$1:$G$178"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
+++ b/playstation/output/dates_&_finances_gifts_&_subscriptions.xlsx
@@ -4,14 +4,15 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="2024-09-23" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="gifts" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'2024-09-23'!$A$1:$G$178</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">gifts!$A$1:$G$178</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="TX2ZcCTkVlUHDeUm07f6j7jXImeE/xKWRx8BTnRft8k="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="bBF0SmgNh1+i7fXP9o6Z+9+wMedr5bCYFxaXNQXsRy8="/>
     </ext>
   </extLst>
 </workbook>
@@ -675,6 +676,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -873,6 +878,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
